--- a/media/documents/Timetable_TE_Computer_B.xlsx
+++ b/media/documents/Timetable_TE_Computer_B.xlsx
@@ -14,45 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="21">
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>8:00-9:00</t>
+  </si>
+  <si>
+    <t>SBT SEPM B-201</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>PPW CN B-201</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
   <si>
     <t>Wednesday</t>
   </si>
   <si>
+    <t>PPW CN B-202</t>
+  </si>
+  <si>
+    <t>9:00-10:00</t>
+  </si>
+  <si>
+    <t>DMV TOC B-101</t>
+  </si>
+  <si>
+    <t>PPW CN B-101</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>11:15-12:15</t>
+  </si>
+  <si>
+    <t>DMV TOC B-201</t>
+  </si>
+  <si>
+    <t>SBT SEPM B-101</t>
+  </si>
+  <si>
+    <t>13:15-14:15</t>
+  </si>
+  <si>
+    <t>14:15-15:15</t>
+  </si>
+  <si>
+    <t>15:30-16:30</t>
+  </si>
+  <si>
+    <t>16:30-17:30</t>
+  </si>
+  <si>
     <t>17:30-18:30</t>
-  </si>
-  <si>
-    <t>DMV TOC B-301</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>8:00-9:00</t>
-  </si>
-  <si>
-    <t>DMV TOC B-101</t>
-  </si>
-  <si>
-    <t>10:15-11:15</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>15:30-16:30</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>9:00-10:00</t>
-  </si>
-  <si>
-    <t>MPK DBMS B-101</t>
   </si>
 </sst>
 </file>
@@ -384,73 +408,166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="10" width="16.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/media/documents/Timetable_TE_Computer_B.xlsx
+++ b/media/documents/Timetable_TE_Computer_B.xlsx
@@ -61,16 +61,16 @@
     <t>DMV TOC B-201</t>
   </si>
   <si>
+    <t>13:15-14:15</t>
+  </si>
+  <si>
+    <t>14:15-15:15</t>
+  </si>
+  <si>
+    <t>15:30-16:30</t>
+  </si>
+  <si>
     <t>SBT SEPM B-101</t>
-  </si>
-  <si>
-    <t>13:15-14:15</t>
-  </si>
-  <si>
-    <t>14:15-15:15</t>
-  </si>
-  <si>
-    <t>15:30-16:30</t>
   </si>
   <si>
     <t>16:30-17:30</t>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,156 +417,156 @@
     <col min="1" max="10" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
         <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s">
         <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>13</v>
       </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
       <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="G5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>19</v>
       </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>8</v>
       </c>
-      <c r="H8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>20</v>
       </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
         <v>8</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s">
         <v>8</v>
       </c>
     </row>

--- a/media/documents/Timetable_TE_Computer_B.xlsx
+++ b/media/documents/Timetable_TE_Computer_B.xlsx
@@ -61,16 +61,16 @@
     <t>DMV TOC B-201</t>
   </si>
   <si>
+    <t>13:15-14:15</t>
+  </si>
+  <si>
+    <t>14:15-15:15</t>
+  </si>
+  <si>
+    <t>15:30-16:30</t>
+  </si>
+  <si>
     <t>SBT SEPM B-101</t>
-  </si>
-  <si>
-    <t>13:15-14:15</t>
-  </si>
-  <si>
-    <t>14:15-15:15</t>
-  </si>
-  <si>
-    <t>15:30-16:30</t>
   </si>
   <si>
     <t>16:30-17:30</t>
@@ -482,7 +482,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -521,13 +521,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>

--- a/media/documents/Timetable_TE_Computer_B.xlsx
+++ b/media/documents/Timetable_TE_Computer_B.xlsx
@@ -14,69 +14,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>8:00-9:00</t>
+  </si>
+  <si>
+    <t>DMV TOC B-101</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>DMV TOC B-201</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
   <si>
     <t>Friday</t>
   </si>
   <si>
-    <t>8:00-9:00</t>
-  </si>
-  <si>
-    <t>SBT SEPM B-201</t>
+    <t>SBT SEPM B-101</t>
   </si>
   <si>
     <t>Saturday</t>
   </si>
   <si>
-    <t>Monday</t>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>9:00-10:00</t>
+  </si>
+  <si>
+    <t>MPK DBMS B-101</t>
+  </si>
+  <si>
+    <t>SAS ISEE B-101</t>
+  </si>
+  <si>
+    <t>PPW CN B-301</t>
   </si>
   <si>
     <t>PPW CN B-201</t>
   </si>
   <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>PPW CN B-202</t>
-  </si>
-  <si>
-    <t>9:00-10:00</t>
-  </si>
-  <si>
-    <t>DMV TOC B-101</t>
-  </si>
-  <si>
-    <t>PPW CN B-101</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>11:15-12:15</t>
-  </si>
-  <si>
-    <t>DMV TOC B-201</t>
-  </si>
-  <si>
-    <t>13:15-14:15</t>
-  </si>
-  <si>
-    <t>14:15-15:15</t>
-  </si>
-  <si>
-    <t>15:30-16:30</t>
-  </si>
-  <si>
-    <t>SBT SEPM B-101</t>
-  </si>
-  <si>
-    <t>16:30-17:30</t>
-  </si>
-  <si>
-    <t>17:30-18:30</t>
+    <t>SBT SDL B105</t>
+  </si>
+  <si>
+    <t>MPK DBMSL B203A</t>
+  </si>
+  <si>
+    <t>PPW CNL B203B</t>
+  </si>
+  <si>
+    <t>YDD CNL B203C</t>
   </si>
 </sst>
 </file>
@@ -408,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -419,22 +413,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -442,132 +436,60 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
       </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
+      <c r="B4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
+      <c r="B5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B6" t="s">
         <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
